--- a/url pattern.xlsx
+++ b/url pattern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\1차 프로젝트 문서\project1-prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0796C806-1C59-464F-8AF8-AB4CC500A221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A97EAD-6F96-479F-9C3B-F383EB3ADA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="30" windowWidth="24540" windowHeight="13680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="1185" windowWidth="19305" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,6 +247,22 @@
   </si>
   <si>
     <t>출퇴근 기록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백승목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권재균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강흥희</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -415,11 +431,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,46 +455,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -481,32 +539,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,23 +557,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,7 +842,7 @@
   <dimension ref="B3:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -827,178 +858,197 @@
   <sheetData>
     <row r="3" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="38" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="25" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="25" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="26" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="31" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="25" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="26" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="21" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="12" t="s">
         <v>38</v>
       </c>
+      <c r="G12" s="40" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="12" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="12" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="20"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="14" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="26" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="G16" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1009,9 +1059,9 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="3" t="s">
         <v>47</v>
       </c>
@@ -1020,9 +1070,9 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="3" t="s">
         <v>48</v>
       </c>
@@ -1031,9 +1081,9 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="3" t="s">
         <v>49</v>
       </c>
@@ -1042,9 +1092,9 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="38"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1055,9 +1105,9 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="3" t="s">
         <v>36</v>
       </c>
@@ -1066,9 +1116,9 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="38"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1077,9 +1127,9 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="38"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="5" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1090,9 +1140,9 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
@@ -1101,9 +1151,9 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="38"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1112,9 +1162,9 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="38"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="3" t="s">
         <v>14</v>
       </c>
@@ -1123,9 +1173,9 @@
       </c>
     </row>
     <row r="28" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="38"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
@@ -1134,7 +1184,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G12:G15"/>
     <mergeCell ref="B17:B28"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="D12:D15"/>
@@ -1148,5 +1200,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>